--- a/Players.xlsx
+++ b/Players.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Randy\Documents\Challenge Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jshomsky\Documents\My Documents\misc\LED\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="DR" sheetId="1" r:id="rId1"/>
     <sheet name="ES" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="66">
   <si>
     <t>Kurt Krantz</t>
   </si>
@@ -111,48 +111,30 @@
     <t>Rick Kasza</t>
   </si>
   <si>
-    <t>Tom C</t>
-  </si>
-  <si>
     <t>Larry</t>
   </si>
   <si>
-    <t>Marty</t>
-  </si>
-  <si>
     <t>Maynard Pittenger</t>
   </si>
   <si>
     <t>Mike Torina</t>
   </si>
   <si>
-    <t>Kyle</t>
-  </si>
-  <si>
     <t>Mike Jackson</t>
   </si>
   <si>
-    <t>Jeff</t>
-  </si>
-  <si>
     <t>Jason Shomsky</t>
   </si>
   <si>
     <t>Dave Riney</t>
   </si>
   <si>
-    <t>Joe</t>
-  </si>
-  <si>
     <t>Dave McTaggart</t>
   </si>
   <si>
     <t>Jeff Frost</t>
   </si>
   <si>
-    <t>Mike T</t>
-  </si>
-  <si>
     <t>Jeff Pittenger</t>
   </si>
   <si>
@@ -183,9 +165,6 @@
     <t>Tomm</t>
   </si>
   <si>
-    <t>Tim</t>
-  </si>
-  <si>
     <t>Mo</t>
   </si>
   <si>
@@ -225,22 +204,31 @@
     <t>Bob G</t>
   </si>
   <si>
-    <t>2004, 2013</t>
-  </si>
-  <si>
-    <t>2005-2007</t>
-  </si>
-  <si>
-    <t>2008, 2011</t>
-  </si>
-  <si>
-    <t>2 Mike T's, I assume 1 is Tornia</t>
+    <t>Tom Chlebek</t>
+  </si>
+  <si>
+    <t>Larry Pawlik</t>
+  </si>
+  <si>
+    <t>Jeff Issackson</t>
+  </si>
+  <si>
+    <t>Kyle McFadden</t>
+  </si>
+  <si>
+    <t>Marty Fredericks</t>
+  </si>
+  <si>
+    <t>Brian Bay</t>
+  </si>
+  <si>
+    <t>Joe Darany</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -249,7 +237,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -259,6 +247,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -284,6 +278,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -566,11 +566,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM65"/>
+  <dimension ref="A1:AM64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W12" sqref="W12"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -585,7 +585,7 @@
   <sheetData>
     <row r="1" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="1">
-        <f t="shared" ref="B1:T1" si="0">COUNTIF(B3:B123,"x")</f>
+        <f t="shared" ref="B1:T1" si="0">COUNTIF(B3:B122,"x")</f>
         <v>12</v>
       </c>
       <c r="C1" s="1">
@@ -642,7 +642,7 @@
       </c>
       <c r="P1" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="Q1" s="1">
         <f t="shared" si="0"/>
@@ -723,207 +723,273 @@
         <v>2018</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="U3" s="1">
-        <f>COUNTIF(B3:T3,"x")</f>
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="U3" s="5">
+        <f t="shared" ref="U3:U33" si="1">COUNTIF(B3:T3,"x")</f>
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="U4" s="1">
-        <f t="shared" ref="U4:U63" si="1">COUNTIF(B4:T4,"x")</f>
-        <v>1</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="X4" s="1">
-        <v>2000</v>
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="U4" s="5">
+        <f t="shared" si="1"/>
+        <v>19</v>
       </c>
       <c r="AB4" s="1">
-        <f>COUNTIF(A$3:A$129,AA4)</f>
+        <f t="shared" ref="AB4:AB17" si="2">COUNTIF(A$3:A$128,AA4)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="U5" s="1">
+      <c r="A5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="U5" s="5">
         <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X5" s="1">
-        <v>2004</v>
+        <v>18</v>
       </c>
       <c r="AB5" s="1">
-        <f t="shared" ref="AB5:AB17" si="2">COUNTIF(A$3:A$129,AA5)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="U6" s="1">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="U6" s="5">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="W6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="AB6" s="1">
         <f t="shared" si="2"/>
@@ -932,7 +998,7 @@
     </row>
     <row r="7" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>24</v>
@@ -940,21 +1006,52 @@
       <c r="C7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="E7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="U7" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="W7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="AB7" s="1">
         <f t="shared" si="2"/>
@@ -963,11 +1060,14 @@
     </row>
     <row r="8" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="D8" s="1" t="s">
         <v>24</v>
       </c>
@@ -975,17 +1075,45 @@
         <v>24</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T8" s="1" t="s">
         <v>24</v>
       </c>
       <c r="U8" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="W8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="X8" s="1">
-        <v>2007</v>
+        <v>16</v>
       </c>
       <c r="AB8" s="1">
         <f t="shared" si="2"/>
@@ -994,10 +1122,7 @@
     </row>
     <row r="9" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>24</v>
@@ -1032,6 +1157,9 @@
       <c r="O9" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="P9" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="Q9" s="1" t="s">
         <v>24</v>
       </c>
@@ -1039,20 +1167,11 @@
         <v>24</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="T9" s="1" t="s">
         <v>24</v>
       </c>
       <c r="U9" s="1">
         <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="W9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="X9" s="1" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="AA9" s="2"/>
       <c r="AB9" s="1">
@@ -1062,7 +1181,7 @@
     </row>
     <row r="10" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>24</v>
@@ -1074,17 +1193,42 @@
         <v>24</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P10" s="3"/>
+      <c r="R10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T10" s="1" t="s">
         <v>24</v>
       </c>
       <c r="U10" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="W10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X10" s="1">
-        <v>2011</v>
+        <v>14</v>
       </c>
       <c r="AB10" s="1">
         <f t="shared" si="2"/>
@@ -1093,17 +1237,17 @@
     </row>
     <row r="11" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="E11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="G11" s="1" t="s">
         <v>24</v>
       </c>
@@ -1125,25 +1269,23 @@
       <c r="N11" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="P11" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="Q11" s="1" t="s">
         <v>24</v>
       </c>
       <c r="R11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T11" s="1" t="s">
         <v>24</v>
       </c>
       <c r="U11" s="1">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="W11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="X11" s="1">
-        <v>2013</v>
-      </c>
-      <c r="Y11" s="2" t="s">
-        <v>69</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="Y11" s="2"/>
       <c r="AB11" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1151,7 +1293,7 @@
     </row>
     <row r="12" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>24</v>
@@ -1168,6 +1310,9 @@
       <c r="F12" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="G12" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="H12" s="1" t="s">
         <v>24</v>
       </c>
@@ -1177,9 +1322,6 @@
       <c r="J12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="L12" s="1" t="s">
         <v>24</v>
       </c>
@@ -1189,21 +1331,10 @@
       <c r="N12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="O12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="P12" s="3"/>
       <c r="U12" s="1">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AB12" s="1">
         <f t="shared" si="2"/>
@@ -1212,7 +1343,7 @@
     </row>
     <row r="13" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>24</v>
@@ -1223,12 +1354,6 @@
       <c r="D13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G13" s="1" t="s">
         <v>24</v>
       </c>
@@ -1247,30 +1372,19 @@
       <c r="L13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M13" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="N13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="O13" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="P13" s="3"/>
       <c r="Q13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="T13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="U13" s="1">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AB13" s="1">
         <f t="shared" si="2"/>
@@ -1279,29 +1393,14 @@
     </row>
     <row r="14" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="I14" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="J14" s="1" t="s">
         <v>24</v>
       </c>
@@ -1320,21 +1419,21 @@
       <c r="O14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="P14" s="1" t="s">
+      <c r="P14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q14" s="1" t="s">
         <v>24</v>
       </c>
       <c r="R14" s="1" t="s">
         <v>24</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="T14" s="1" t="s">
         <v>24</v>
       </c>
       <c r="U14" s="1">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AB14" s="1">
         <f t="shared" si="2"/>
@@ -1343,19 +1442,7 @@
     </row>
     <row r="15" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>24</v>
@@ -1378,6 +1465,9 @@
       <c r="O15" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="P15" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="Q15" s="1" t="s">
         <v>24</v>
       </c>
@@ -1385,11 +1475,14 @@
         <v>24</v>
       </c>
       <c r="S15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T15" s="1" t="s">
         <v>24</v>
       </c>
       <c r="U15" s="1">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AB15" s="1">
         <f t="shared" si="2"/>
@@ -1398,20 +1491,11 @@
     </row>
     <row r="16" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G16" s="1" t="s">
         <v>24</v>
       </c>
@@ -1424,9 +1508,6 @@
       <c r="J16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="L16" s="1" t="s">
         <v>24</v>
       </c>
@@ -1439,21 +1520,13 @@
       <c r="O16" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="P16" s="3"/>
       <c r="Q16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="T16" s="1" t="s">
         <v>24</v>
       </c>
       <c r="U16" s="1">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AB16" s="1">
         <f t="shared" si="2"/>
@@ -1461,51 +1534,43 @@
       </c>
     </row>
     <row r="17" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="T17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="U17" s="1">
+      <c r="A17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="T17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="U17" s="5">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="AB17" s="1">
         <f t="shared" si="2"/>
@@ -1514,99 +1579,109 @@
     </row>
     <row r="18" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="O18" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="P18" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="Q18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T18" s="1" t="s">
         <v>24</v>
       </c>
       <c r="U18" s="1">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P19" s="3"/>
       <c r="U19" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>28</v>
+        <v>5</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="P20" s="3"/>
       <c r="U20" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P21" s="3"/>
       <c r="U21" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R22" s="1" t="s">
         <v>24</v>
       </c>
       <c r="U22" s="1">
@@ -1616,423 +1691,486 @@
     </row>
     <row r="23" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="H23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P23" s="3"/>
       <c r="U23" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>24</v>
       </c>
       <c r="O24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Q24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S24" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="P24" s="3"/>
       <c r="U24" s="1">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P25" s="3"/>
       <c r="U25" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="T26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="U26" s="1">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="T27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="U27" s="1">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="U28" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="U29" s="1">
+      <c r="A26" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="U30" s="1">
+    <row r="27" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="U31" s="1">
+    <row r="28" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q32" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R32" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S32" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="T32" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="U32" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O33" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="U33" s="1">
+    <row r="29" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="T34" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="U34" s="1">
+    <row r="30" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
+    <row r="31" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="U33" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U34" s="1">
+        <f t="shared" ref="U34:U62" si="3">COUNTIF(B34:T34,"x")</f>
+        <v>0</v>
+      </c>
+    </row>
     <row r="35" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U35" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U36" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U37" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U38" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U39" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U40" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U41" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U42" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U43" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U44" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U45" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U46" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U47" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U48" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="21:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U49" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="21:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U50" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="21:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U51" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="21:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U52" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="21:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U53" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="21:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U54" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="21:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U55" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="21:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U56" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="21:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U57" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="21:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U58" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="21:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U59" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="21:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U60" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="21:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U61" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="21:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U62" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="21:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="U63" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="21:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="64" spans="21:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <sortState ref="A3:U33">
+    <sortCondition descending="1" ref="U3:U33"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM65"/>
+  <dimension ref="A1:AM64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q3" sqref="Q3"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2046,79 +2184,79 @@
   <sheetData>
     <row r="1" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="1">
-        <f t="shared" ref="B1:T1" si="0">COUNTIF(B3:B123,"x")</f>
+        <f>COUNTIF(B3:B122,"x")</f>
         <v>12</v>
       </c>
       <c r="C1" s="1">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(C3:C122,"x")</f>
         <v>12</v>
       </c>
       <c r="D1" s="1">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D3:D122,"x")</f>
         <v>12</v>
       </c>
       <c r="E1" s="1">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(E3:E122,"x")</f>
         <v>14</v>
       </c>
       <c r="F1" s="1">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(F3:F122,"x")</f>
         <v>12</v>
       </c>
       <c r="G1" s="1">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(G3:G122,"x")</f>
         <v>12</v>
       </c>
       <c r="H1" s="1">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(H3:H122,"x")</f>
         <v>14</v>
       </c>
       <c r="I1" s="1">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(I3:I122,"x")</f>
         <v>14</v>
       </c>
       <c r="J1" s="1">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(J3:J122,"x")</f>
         <v>14</v>
       </c>
       <c r="K1" s="1">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(K3:K122,"x")</f>
         <v>14</v>
       </c>
       <c r="L1" s="1">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(L3:L122,"x")</f>
         <v>14</v>
       </c>
       <c r="M1" s="1">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(M3:M122,"x")</f>
         <v>14</v>
       </c>
       <c r="N1" s="1">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(N3:N122,"x")</f>
         <v>14</v>
       </c>
       <c r="O1" s="1">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(O3:O122,"x")</f>
         <v>14</v>
       </c>
       <c r="P1" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>COUNTIF(P3:P122,"x")</f>
+        <v>6</v>
       </c>
       <c r="Q1" s="1">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(Q3:Q122,"x")</f>
         <v>14</v>
       </c>
       <c r="R1" s="1">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(R3:R122,"x")</f>
         <v>14</v>
       </c>
       <c r="S1" s="1">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(S3:S122,"x")</f>
         <v>12</v>
       </c>
       <c r="T1" s="1">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(T3:T122,"x")</f>
         <v>11</v>
       </c>
     </row>
@@ -2184,7 +2322,7 @@
         <v>2018</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2218,6 +2356,7 @@
       <c r="O3" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="P3" s="3"/>
       <c r="Q3" s="1" t="s">
         <v>24</v>
       </c>
@@ -2236,45 +2375,54 @@
       </c>
     </row>
     <row r="4" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="U4" s="1">
-        <f t="shared" ref="U4:U63" si="1">COUNTIF(B4:T4,"x")</f>
+      <c r="A4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5">
+        <f t="shared" ref="U4:U62" si="0">COUNTIF(B4:T4,"x")</f>
         <v>10</v>
       </c>
       <c r="AB4" s="1">
-        <f>COUNTIF(A$3:A$129,AA4)</f>
+        <f>COUNTIF(A$3:A$128,AA4)</f>
         <v>0</v>
       </c>
     </row>
@@ -2297,12 +2445,13 @@
       <c r="J5" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="P5" s="3"/>
       <c r="U5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="AB5" s="1">
-        <f t="shared" ref="AB5:AB17" si="2">COUNTIF(A$3:A$129,AA5)</f>
+        <f>COUNTIF(A$3:A$128,AA5)</f>
         <v>0</v>
       </c>
     </row>
@@ -2322,12 +2471,13 @@
       <c r="G6" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="P6" s="3"/>
       <c r="U6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="AB6" s="1">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A$3:A$128,AA6)</f>
         <v>0</v>
       </c>
     </row>
@@ -2353,18 +2503,51 @@
       <c r="G7" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="H7" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="I7" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="J7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="S7" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="T7" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="U7" s="1">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>19</v>
       </c>
       <c r="AB7" s="1">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A$3:A$128,AA7)</f>
         <v>0</v>
       </c>
     </row>
@@ -2387,149 +2570,152 @@
       <c r="K8" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="P8" s="3"/>
       <c r="U8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="X8" s="2"/>
       <c r="AB8" s="1">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A$3:A$128,AA8)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="U9" s="1">
-        <f t="shared" si="1"/>
+      <c r="B9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="X9" s="2"/>
       <c r="AB9" s="1">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A$3:A$128,AA9)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="U10" s="1">
-        <f t="shared" si="1"/>
+      <c r="A10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="U10" s="5">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="X10" s="2"/>
       <c r="AB10" s="1">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A$3:A$128,AA10)</f>
         <v>0</v>
       </c>
     </row>
@@ -2567,13 +2753,14 @@
       <c r="M11" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="P11" s="3"/>
       <c r="U11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="X11" s="2"/>
       <c r="AB11" s="1">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A$3:A$128,AA11)</f>
         <v>0</v>
       </c>
     </row>
@@ -2605,12 +2792,13 @@
       <c r="L12" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="P12" s="3"/>
       <c r="U12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="AB12" s="1">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A$3:A$128,AA12)</f>
         <v>0</v>
       </c>
     </row>
@@ -2657,16 +2845,17 @@
       <c r="O13" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="P13" s="3"/>
       <c r="R13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="U13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="X13" s="2"/>
       <c r="AB13" s="1">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A$3:A$128,AA13)</f>
         <v>0</v>
       </c>
     </row>
@@ -2713,36 +2902,38 @@
       <c r="O14" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="P14" s="3"/>
       <c r="U14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="X14" s="2"/>
       <c r="AB14" s="1">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A$3:A$128,AA14)</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="P15" s="3"/>
       <c r="U15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="X15" s="2"/>
       <c r="AB15" s="1">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A$3:A$128,AA15)</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>24</v>
@@ -2762,19 +2953,20 @@
       <c r="I16" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="P16" s="3"/>
       <c r="U16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="X16" s="2"/>
       <c r="AB16" s="1">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A$3:A$128,AA16)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>24</v>
@@ -2794,18 +2986,19 @@
       <c r="I17" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="P17" s="3"/>
       <c r="U17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="AB17" s="1">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A$3:A$128,AA17)</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>24</v>
@@ -2819,14 +3012,15 @@
       <c r="G18" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="P18" s="3"/>
       <c r="U18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>24</v>
@@ -2861,6 +3055,7 @@
       <c r="O19" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="P19" s="3"/>
       <c r="Q19" s="1" t="s">
         <v>24</v>
       </c>
@@ -2874,13 +3069,13 @@
         <v>24</v>
       </c>
       <c r="U19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>24</v>
@@ -2888,19 +3083,20 @@
       <c r="I20" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="P20" s="3"/>
       <c r="U20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K21" s="1" t="s">
@@ -2918,28 +3114,34 @@
       <c r="O21" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="P21" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="Q21" s="1" t="s">
         <v>24</v>
       </c>
       <c r="R21" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="S21" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="T21" s="1" t="s">
         <v>24</v>
       </c>
       <c r="U21" s="1">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="J22" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K22" s="1" t="s">
@@ -2951,35 +3153,15 @@
       <c r="M22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="T22" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="P22" s="3"/>
       <c r="U22" s="1">
-        <f t="shared" si="1"/>
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>24</v>
@@ -2993,14 +3175,21 @@
       <c r="M23" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="U23" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>24</v>
@@ -3014,61 +3203,65 @@
       <c r="M24" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="N24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="Q24" s="1" t="s">
         <v>24</v>
       </c>
       <c r="R24" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="T24" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="U24" s="1">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="N25" s="1" t="s">
         <v>24</v>
       </c>
       <c r="O25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="P25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="P25" s="3"/>
       <c r="R25" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="S25" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="T25" s="1" t="s">
         <v>24</v>
       </c>
       <c r="U25" s="1">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M26" s="1" t="s">
         <v>24</v>
       </c>
       <c r="N26" s="1" t="s">
@@ -3077,6 +3270,10 @@
       <c r="O26" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="R26" s="1" t="s">
         <v>24</v>
       </c>
@@ -3087,13 +3284,13 @@
         <v>24</v>
       </c>
       <c r="U26" s="1">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>24</v>
@@ -3107,32 +3304,21 @@
       <c r="O27" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="P27" s="3"/>
       <c r="Q27" s="1" t="s">
         <v>24</v>
       </c>
       <c r="R27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="S27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="T27" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="U27" s="1">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="N28" s="1" t="s">
         <v>24</v>
@@ -3140,72 +3326,109 @@
       <c r="O28" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="P28" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="Q28" s="1" t="s">
         <v>24</v>
       </c>
       <c r="R28" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="S28" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="U28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q29" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R29" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S29" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="U29" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
+      <c r="A29" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O29" s="5"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="U30" s="1">
-        <f t="shared" si="1"/>
+      <c r="A30" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="O31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T31" s="1" t="s">
         <v>24</v>
       </c>
       <c r="U31" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="P32" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="P32" s="3"/>
       <c r="Q32" s="1" t="s">
         <v>24</v>
       </c>
@@ -3216,228 +3439,212 @@
         <v>24</v>
       </c>
       <c r="U32" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>63</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="P33" s="3"/>
       <c r="Q33" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="S33" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="T33" s="1" t="s">
+      <c r="R33" s="1" t="s">
         <v>24</v>
       </c>
       <c r="U33" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q34" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R34" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P34" s="3"/>
+      <c r="S34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T34" s="1" t="s">
         <v>24</v>
       </c>
       <c r="U34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="S35" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="T35" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="U35" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U36" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U37" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U38" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U39" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U40" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U41" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U42" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U43" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U44" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U45" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U46" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U47" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U48" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="21:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U49" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="21:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U50" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="21:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U51" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="21:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U52" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="21:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U53" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="21:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U54" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="21:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U55" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="21:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U56" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="21:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U57" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="21:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U58" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="21:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U59" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="21:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U60" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="21:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U61" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="21:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U62" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="21:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="U63" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="21:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="64" spans="21:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
